--- a/400.xlsx
+++ b/400.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\Private\Github\Learning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D370FED4-7C69-41D4-913D-C1CB57C4C669}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21E2D6EB-6713-41FE-B5DE-BF75200168E6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33470" yWindow="3040" windowWidth="14400" windowHeight="7360" activeTab="6" xr2:uid="{12AD4287-8134-4218-AA5C-6842D8F962AE}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{12AD4287-8134-4218-AA5C-6842D8F962AE}"/>
   </bookViews>
   <sheets>
     <sheet name="2023_test 1" sheetId="1" r:id="rId1"/>
     <sheet name="2023_test 2" sheetId="3" r:id="rId2"/>
-    <sheet name="2023 Test 4" sheetId="4" r:id="rId3"/>
-    <sheet name="2023 test 5" sheetId="5" r:id="rId4"/>
-    <sheet name="2023 test 7" sheetId="6" r:id="rId5"/>
-    <sheet name="20023 test 8" sheetId="7" r:id="rId6"/>
-    <sheet name="2023 test 9" sheetId="8" r:id="rId7"/>
-    <sheet name="part 7" sheetId="2" r:id="rId8"/>
+    <sheet name="2023_test3" sheetId="9" r:id="rId3"/>
+    <sheet name="2023 Test 4" sheetId="4" r:id="rId4"/>
+    <sheet name="2023 test 5" sheetId="5" r:id="rId5"/>
+    <sheet name="2023 test 7" sheetId="6" r:id="rId6"/>
+    <sheet name="20023 test 8" sheetId="7" r:id="rId7"/>
+    <sheet name="2023 test 9" sheetId="8" r:id="rId8"/>
+    <sheet name="part 7" sheetId="2" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -291,7 +292,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="42">
   <si>
     <t>C</t>
   </si>
@@ -414,6 +415,9 @@
   </si>
   <si>
     <t>sai 4 part 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> C</t>
   </si>
 </sst>
 </file>
@@ -1837,6 +1841,213 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE34EB86-5D5C-4FE3-A52B-E7741B6D73BD}">
+  <dimension ref="A1:B31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>2</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>2</v>
+      </c>
+      <c r="B23" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>2</v>
+      </c>
+      <c r="B24" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>2</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>1</v>
+      </c>
+      <c r="B26" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>1</v>
+      </c>
+      <c r="B27" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>1</v>
+      </c>
+      <c r="B28" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>1</v>
+      </c>
+      <c r="B31" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7E22098-272A-4482-B7D5-2F32EE13886E}">
   <dimension ref="A101:E130"/>
   <sheetViews>
@@ -2011,7 +2222,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B182324C-2DB1-441A-AB6B-D9335FCA4DD5}">
   <dimension ref="A1:G130"/>
   <sheetViews>
@@ -2204,7 +2415,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98F3396E-80F4-44D6-9283-B994D2B7460B}">
   <dimension ref="F1:G1"/>
   <sheetViews>
@@ -2227,18 +2438,19 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF7B9D92-5DCD-4F72-9EDC-249C56399D5C}">
-  <dimension ref="A1:I130"/>
+  <dimension ref="A1:I146"/>
   <sheetViews>
     <sheetView topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="G120" sqref="G120"/>
+      <selection activeCell="N127" sqref="N127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.5" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="8.7265625" style="15"/>
     <col min="2" max="2" width="8.7265625" style="16"/>
+    <col min="7" max="7" width="9.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="9:9" x14ac:dyDescent="0.55000000000000004">
@@ -2401,12 +2613,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A129" s="15" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A130" s="15" t="s">
         <v>2</v>
       </c>
@@ -2414,140 +2626,102 @@
         <v>38</v>
       </c>
     </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AADD9DCF-CD29-4B65-840A-31AF7F9D42A1}">
-  <dimension ref="A1:G120"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A111" workbookViewId="0">
-      <selection activeCell="C120" sqref="C120"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="23.5" x14ac:dyDescent="0.55000000000000004"/>
-  <cols>
-    <col min="1" max="6" width="8.7265625" style="15"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="7:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="G1" s="9">
-        <v>45476</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A101" s="15" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A102" s="15" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A103" s="15" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A104" s="15" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A105" s="15" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A106" s="15" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A107" s="15" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A108" s="15" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A109" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="B109" s="15" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A110" s="15" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A111" s="15" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A112" s="15" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A113" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="B113" s="15" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A114" s="15" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A115" s="15" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A116" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="B116" s="15" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A117" s="15" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A118" s="15" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A119" s="15" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A120" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="B120" s="15" t="s">
-        <v>37</v>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A131" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G131" s="13">
+        <v>45498</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A132" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B132" s="16" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A133" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A134" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B134" s="16" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A135" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A136" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B136" s="16" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A137" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B137" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A138" s="15" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A139" s="15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A140" s="15" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A141" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A142" s="15" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A143" s="15" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A144" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A145" s="15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A146" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B146" s="16" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -2557,6 +2731,294 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AADD9DCF-CD29-4B65-840A-31AF7F9D42A1}">
+  <dimension ref="A1:H146"/>
+  <sheetViews>
+    <sheetView topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="H122" sqref="H122"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="23.5" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="6" width="8.7265625" style="15"/>
+    <col min="8" max="8" width="9.453125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="7:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G1" s="9">
+        <v>45476</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A101" s="15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A102" s="15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A103" s="15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A104" s="15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A105" s="15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A106" s="15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A107" s="15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A108" s="15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A109" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="B109" s="15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A110" s="15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A111" s="15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A112" s="15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A113" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B113" s="15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A114" s="15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A115" s="15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A116" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="B116" s="15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A117" s="15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A118" s="15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A119" s="15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A120" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="B120" s="15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A121" s="15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A122" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="B122" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="H122" s="13">
+        <v>45498</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A123" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="B123" s="15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A124" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="B124" s="15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A125" s="15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A126" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B126" s="15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A127" s="15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A128" s="15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A129" s="15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A130" s="15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A131" s="15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A132" s="15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A133" s="15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A134" s="15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A135" s="15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A136" s="15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A137" s="15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A138" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B138" s="15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A139" s="15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A140" s="15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A141" s="15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A142" s="15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A143" s="15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A144" s="15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A145" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="B145" s="15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A146" s="15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A8A6E05-AFDB-4E96-9660-A36DCBDB4DF8}">
   <dimension ref="A2:F50"/>
   <sheetViews>
